--- a/data/manually/기간별 분석.xlsx
+++ b/data/manually/기간별 분석.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/solkim/repos/abm_cpe_model/data/manually/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA693895-C1FD-8C4B-8E5C-F6A91B0CCFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF3E26-E476-814E-82B5-6E55104F3D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{F8A5EDEA-A913-7B40-A4F2-6AB184DD511C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>자료 정리</t>
   </si>
@@ -100,12 +100,27 @@
   <si>
     <t>m = 3</t>
   </si>
+  <si>
+    <t>f(beta) model prediction</t>
+  </si>
+  <si>
+    <t>beta = 0.007</t>
+  </si>
+  <si>
+    <t>beta = 0.008</t>
+  </si>
+  <si>
+    <t>beta = 0.009</t>
+  </si>
+  <si>
+    <t>beta = 0.010</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +133,19 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -189,23 +217,23 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2489,16 +2517,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>244330</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>143837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352105</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2525,16 +2553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>339579</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>757339</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372844</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>184151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2879,10 +2907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A32808D-8B9D-AE4A-B714-118922B3DDE3}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2894,8 +2922,8 @@
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
@@ -2904,33 +2932,51 @@
       <c r="G1" t="s">
         <v>20</v>
       </c>
+      <c r="H1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="H2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3">
@@ -2939,7 +2985,7 @@
       <c r="D3">
         <v>13</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <f>100*D3/C3</f>
         <v>2.3941068139963169</v>
       </c>
@@ -2950,9 +2996,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -2961,7 +3007,7 @@
       <c r="D4">
         <v>16</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <f t="shared" ref="E4:E12" si="0">100*D4/C4</f>
         <v>2.7118644067796609</v>
       </c>
@@ -2972,9 +3018,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -2983,7 +3029,7 @@
       <c r="D5">
         <v>14</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
@@ -2994,9 +3040,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -3005,7 +3051,7 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>11.111111111111111</v>
       </c>
@@ -3016,11 +3062,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7">
@@ -3029,7 +3075,7 @@
       <c r="D7">
         <v>34</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>91.891891891891888</v>
       </c>
@@ -3040,9 +3086,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8">
@@ -3051,7 +3097,7 @@
       <c r="D8">
         <v>52</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>96.296296296296291</v>
       </c>
@@ -3062,9 +3108,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9">
@@ -3073,7 +3119,7 @@
       <c r="D9">
         <v>43</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>76.785714285714292</v>
       </c>
@@ -3084,9 +3130,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10">
@@ -3095,7 +3141,7 @@
       <c r="D10">
         <v>72</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>84.705882352941174</v>
       </c>
@@ -3106,9 +3152,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C11">
@@ -3117,7 +3163,7 @@
       <c r="D11">
         <v>42</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>47.19101123595506</v>
       </c>
@@ -3128,9 +3174,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C12">
@@ -3139,7 +3185,7 @@
       <c r="D12">
         <v>64</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>30.917874396135264</v>
       </c>
@@ -3151,6 +3197,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/manually/기간별 분석.xlsx
+++ b/data/manually/기간별 분석.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/solkim/repos/abm_cpe_model/data/manually/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yonsei_math/repos/abm_cpe_model/data/manually/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF3E26-E476-814E-82B5-6E55104F3D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E380B6EA-3B01-CF46-BAC7-DB878E7C5068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{F8A5EDEA-A913-7B40-A4F2-6AB184DD511C}"/>
+    <workbookView xWindow="20460" yWindow="500" windowWidth="30740" windowHeight="26600" xr2:uid="{F8A5EDEA-A913-7B40-A4F2-6AB184DD511C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>자료 정리</t>
   </si>
@@ -115,29 +137,58 @@
   <si>
     <t>beta = 0.010</t>
   </si>
+  <si>
+    <t>beta = 0.001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta = 0.002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta = 0.003</t>
+  </si>
+  <si>
+    <t>beta = 0.005</t>
+  </si>
+  <si>
+    <t>beta = 0.006</t>
+  </si>
+  <si>
+    <t>beta = 0.0035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta = 0.0045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta = 0.0040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -145,16 +196,37 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -215,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -234,9 +306,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -260,7 +340,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -397,7 +477,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-KR"/>
+                <a:endParaRPr lang="ko-Kore-KR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -647,7 +727,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-KR"/>
+                <a:endParaRPr lang="ko-Kore-KR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -815,7 +895,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="ko-Kore-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2080476304"/>
@@ -874,7 +954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="ko-Kore-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2080474592"/>
@@ -916,7 +996,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="ko-Kore-KR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -953,7 +1033,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-KR"/>
+      <a:endParaRPr lang="ko-Kore-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -967,7 +1047,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1004,7 +1084,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="ko-Kore-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1154,7 +1234,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-KR"/>
+                <a:endParaRPr lang="ko-Kore-KR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1323,7 +1403,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="ko-Kore-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2082078288"/>
@@ -1382,7 +1462,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="ko-Kore-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2057889536"/>
@@ -1430,7 +1510,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-KR"/>
+      <a:endParaRPr lang="ko-Kore-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2591,7 +2671,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2907,22 +2987,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A32808D-8B9D-AE4A-B714-118922B3DDE3}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2938,8 +3018,29 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
+      <c r="L1">
+        <v>50</v>
+      </c>
+      <c r="N1">
+        <v>50</v>
+      </c>
+      <c r="O1">
+        <v>50</v>
+      </c>
+      <c r="P1">
+        <v>50</v>
+      </c>
+      <c r="Q1">
+        <v>50</v>
+      </c>
+      <c r="R1">
+        <v>50</v>
+      </c>
+      <c r="V1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="39" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2971,8 +3072,41 @@
       <c r="K2" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="L2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2996,7 +3130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -3018,7 +3152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -3040,7 +3174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="19" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
@@ -3062,7 +3196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3079,14 +3213,33 @@
         <f t="shared" si="0"/>
         <v>91.891891891891888</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="13">
         <v>11</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="13">
         <v>8</v>
       </c>
+      <c r="L7" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="13">
+        <v>8.24</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13">
+        <v>43.3</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -3101,14 +3254,33 @@
         <f t="shared" si="0"/>
         <v>96.296296296296291</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="13">
         <v>17</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="13">
         <v>9</v>
       </c>
+      <c r="L8" s="13">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13">
+        <v>8.48</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="13">
+        <v>22.68</v>
+      </c>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13">
+        <v>73.34</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -3123,14 +3295,33 @@
         <f t="shared" si="0"/>
         <v>76.785714285714292</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="13">
         <v>16</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="13">
         <v>7</v>
       </c>
+      <c r="L9" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
+        <v>9.14</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="13">
+        <v>22.88</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13">
+        <v>68.099999999999994</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -3145,14 +3336,33 @@
         <f t="shared" si="0"/>
         <v>84.705882352941174</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="13">
         <v>21</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="13">
         <v>20</v>
       </c>
+      <c r="L10" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13">
+        <v>6.22</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="13">
+        <v>22.92</v>
+      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13">
+        <v>65.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -3167,14 +3377,33 @@
         <f t="shared" si="0"/>
         <v>47.19101123595506</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="13">
         <v>14</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="13">
         <v>3</v>
       </c>
+      <c r="L11" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13">
+        <v>6.14</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="13">
+        <v>14.58</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13">
+        <v>60.58</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="19" thickBot="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
@@ -3189,11 +3418,64 @@
         <f t="shared" si="0"/>
         <v>30.917874396135264</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="13">
         <v>25</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="13">
         <v>7</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13">
+        <v>7.26</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="13">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">SUM(($G$7:$G$12-L7:L12)^2)</f>
+        <v>573.38839999999993</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">SUM(($G$7:$G$12-M7:M12)^2)</f>
+        <v>652</v>
+      </c>
+      <c r="N13" cm="1">
+        <f t="array" ref="N13">SUM(($G$7:$G$12-N7:N12)^2)</f>
+        <v>213.78600000000003</v>
+      </c>
+      <c r="O13" cm="1">
+        <f t="array" ref="O13">SUM(($G$7:$G$12-O7:O12)^2)</f>
+        <v>652</v>
+      </c>
+      <c r="P13" cm="1">
+        <f t="array" ref="P13">SUM(($G$7:$G$12-P7:P12)^2)</f>
+        <v>652</v>
+      </c>
+      <c r="Q13" cm="1">
+        <f t="array" ref="Q13">SUM(($G$7:$G$12-Q7:Q12)^2)</f>
+        <v>652</v>
+      </c>
+      <c r="R13" cm="1">
+        <f t="array" ref="R13">SUM(($G$7:$G$12-R7:R12)^2)</f>
+        <v>732.30479999999989</v>
+      </c>
+      <c r="V13" cm="1">
+        <f t="array" ref="V13">SUM(($G$7:$G$12-V7:V12)^2)</f>
+        <v>17399.081999999999</v>
       </c>
     </row>
   </sheetData>
